--- a/libmasys/excel/Idiomas.xlsx
+++ b/libmasys/excel/Idiomas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="153">
   <si>
     <t>Titulo</t>
   </si>
@@ -467,6 +467,9 @@
   </si>
   <si>
     <t>Gaspar de Lachica Cassinello</t>
+  </si>
+  <si>
+    <t>ID E 45</t>
   </si>
 </sst>
 </file>
@@ -1457,8 +1460,12 @@
       <c r="E46" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="47">
       <c r="F47" s="2"/>
